--- a/resources/results/Thesis.xlsx
+++ b/resources/results/Thesis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina-\Google Drive\PhD\Experiments\analysis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220BF94F-0961-418A-BD9C-DDB0438B2655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478510FD-9C56-47EE-AB92-F6517E4280DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="21" activeTab="21" xr2:uid="{87B01D8B-37C4-4326-8181-A3BE4A78FA3B}"/>
+    <workbookView xWindow="5700" yWindow="3103" windowWidth="24686" windowHeight="13148" tabRatio="782" firstSheet="12" activeTab="17" xr2:uid="{87B01D8B-37C4-4326-8181-A3BE4A78FA3B}"/>
   </bookViews>
   <sheets>
-    <sheet name="findbugs_16w" sheetId="1" r:id="rId1"/>
-    <sheet name="simple_16w" sheetId="2" r:id="rId2"/>
-    <sheet name="findbugs_87w" sheetId="3" r:id="rId3"/>
+    <sheet name="findbugs_16w (TR-1950X)" sheetId="1" r:id="rId1"/>
+    <sheet name="simple_16w (TR-1950X)" sheetId="2" r:id="rId2"/>
+    <sheet name="findbugs_87w (TR-1950X)" sheetId="3" r:id="rId3"/>
     <sheet name="1Constraint_2m (i5-8500)" sheetId="4" r:id="rId4"/>
     <sheet name="imdb_dangling_2.0 (TR-1950X)" sheetId="19" r:id="rId5"/>
     <sheet name="imdb_dangling_0.5 (TR-1950X)" sheetId="20" r:id="rId6"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="126">
   <si>
     <t>1m</t>
   </si>
@@ -440,6 +440,9 @@
   <si>
     <t>500k</t>
   </si>
+  <si>
+    <t>100k</t>
+  </si>
 </sst>
 </file>
 
@@ -473,7 +476,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -619,11 +622,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -632,8 +674,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -643,7 +683,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -652,6 +691,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,7 +740,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>findbugs_16w!$B$2</c:f>
+              <c:f>'findbugs_16w (TR-1950X)'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -722,7 +767,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{942C7667-C672-4092-BAFE-BC88655BF39C}" type="CELLRANGE">
+                    <a:fld id="{F8D09CAD-9558-4EFC-967A-179BB9FD16D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -754,7 +799,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{702F1844-6A00-47B6-9D89-EC27F8BBB394}" type="CELLRANGE">
+                    <a:fld id="{EBDF123D-D494-4859-AF3F-C0114FD7BF90}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -787,7 +832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60C2FE01-6199-4355-9AA9-A07D4E34934C}" type="CELLRANGE">
+                    <a:fld id="{0F66BB36-D841-43C7-A94C-9B3CB81EF698}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -820,7 +865,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89761E51-3114-45BE-B34C-22D26410B940}" type="CELLRANGE">
+                    <a:fld id="{27E57F99-7E7A-4A09-828C-3806EA44288F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -905,7 +950,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(findbugs_16w!$A$2,findbugs_16w!$A$5,findbugs_16w!$A$8,findbugs_16w!$A$11)</c:f>
+              <c:f>('findbugs_16w (TR-1950X)'!$A$2,'findbugs_16w (TR-1950X)'!$A$5,'findbugs_16w (TR-1950X)'!$A$8,'findbugs_16w (TR-1950X)'!$A$11)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -925,7 +970,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(findbugs_16w!$C$2,findbugs_16w!$C$5,findbugs_16w!$C$8,findbugs_16w!$C$11)</c:f>
+              <c:f>('findbugs_16w (TR-1950X)'!$C$2,'findbugs_16w (TR-1950X)'!$C$5,'findbugs_16w (TR-1950X)'!$C$8,'findbugs_16w (TR-1950X)'!$C$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -947,7 +992,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>(findbugs_16w!$D$2,findbugs_16w!$D$5,findbugs_16w!$D$8,findbugs_16w!$D$11)</c15:f>
+                <c15:f>('findbugs_16w (TR-1950X)'!$D$2,'findbugs_16w (TR-1950X)'!$D$5,'findbugs_16w (TR-1950X)'!$D$8,'findbugs_16w (TR-1950X)'!$D$11)</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
@@ -975,7 +1020,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>findbugs_16w!$B$3</c:f>
+              <c:f>'findbugs_16w (TR-1950X)'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1002,7 +1047,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91DF4946-551D-4AE9-B6D9-A87560E5A17F}" type="CELLRANGE">
+                    <a:fld id="{F901393C-EEA8-4055-A7ED-725486DF7462}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1034,7 +1079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86422060-A5D2-4E40-91F3-1085E31A4748}" type="CELLRANGE">
+                    <a:fld id="{1D88CBB2-15F5-41C4-A056-2D6D3CC95C7D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1067,7 +1112,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1E1F103-F73D-483F-995D-2B443C1A59D3}" type="CELLRANGE">
+                    <a:fld id="{22FA3C7C-04B0-4E8D-A9C3-927560B0C411}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1100,7 +1145,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08A10455-A656-40AC-8E79-C9EE15CD99B6}" type="CELLRANGE">
+                    <a:fld id="{A2031412-E571-4DE1-9E42-BA21CFDB355B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1185,7 +1230,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(findbugs_16w!$A$2,findbugs_16w!$A$5,findbugs_16w!$A$8,findbugs_16w!$A$11)</c:f>
+              <c:f>('findbugs_16w (TR-1950X)'!$A$2,'findbugs_16w (TR-1950X)'!$A$5,'findbugs_16w (TR-1950X)'!$A$8,'findbugs_16w (TR-1950X)'!$A$11)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1205,7 +1250,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(findbugs_16w!$C$3,findbugs_16w!$C$6,findbugs_16w!$C$9,findbugs_16w!$C$12)</c:f>
+              <c:f>('findbugs_16w (TR-1950X)'!$C$3,'findbugs_16w (TR-1950X)'!$C$6,'findbugs_16w (TR-1950X)'!$C$9,'findbugs_16w (TR-1950X)'!$C$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1227,7 +1272,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>(findbugs_16w!$D$3,findbugs_16w!$D$6,findbugs_16w!$D$9,findbugs_16w!$D$12)</c15:f>
+                <c15:f>('findbugs_16w (TR-1950X)'!$D$3,'findbugs_16w (TR-1950X)'!$D$6,'findbugs_16w (TR-1950X)'!$D$9,'findbugs_16w (TR-1950X)'!$D$12)</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
@@ -1255,7 +1300,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>findbugs_16w!$B$4</c:f>
+              <c:f>'findbugs_16w (TR-1950X)'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1282,7 +1327,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEA397E0-6BFB-4860-8B69-24E74BE23428}" type="CELLRANGE">
+                    <a:fld id="{5388F6EA-1C96-47A1-8E7D-5B0D61ADF96F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1314,7 +1359,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{923EA751-5782-42A7-9B78-A45714135081}" type="CELLRANGE">
+                    <a:fld id="{816B00F0-46DF-4561-A5E6-BCE4B7A29DCA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1347,7 +1392,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{375C558E-2638-47F6-8304-06BDD2FEAFD3}" type="CELLRANGE">
+                    <a:fld id="{A8B331DC-33ED-432F-81CE-1066AD917041}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1380,7 +1425,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2E2B6D1-D72F-4115-B7A7-45D08B2B8389}" type="CELLRANGE">
+                    <a:fld id="{639A4940-D50A-4153-B7DC-9B8BB2B70B7E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1465,7 +1510,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(findbugs_16w!$A$2,findbugs_16w!$A$5,findbugs_16w!$A$8,findbugs_16w!$A$11)</c:f>
+              <c:f>('findbugs_16w (TR-1950X)'!$A$2,'findbugs_16w (TR-1950X)'!$A$5,'findbugs_16w (TR-1950X)'!$A$8,'findbugs_16w (TR-1950X)'!$A$11)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1485,7 +1530,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(findbugs_16w!$C$4,findbugs_16w!$C$7,findbugs_16w!$C$10,findbugs_16w!$C$13)</c:f>
+              <c:f>('findbugs_16w (TR-1950X)'!$C$4,'findbugs_16w (TR-1950X)'!$C$7,'findbugs_16w (TR-1950X)'!$C$10,'findbugs_16w (TR-1950X)'!$C$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1507,7 +1552,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>(findbugs_16w!$D$4,findbugs_16w!$D$7,findbugs_16w!$D$10,findbugs_16w!$D$13)</c15:f>
+                <c15:f>('findbugs_16w (TR-1950X)'!$D$4,'findbugs_16w (TR-1950X)'!$D$7,'findbugs_16w (TR-1950X)'!$D$10,'findbugs_16w (TR-1950X)'!$D$13)</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
@@ -1899,7 +1944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BAB829D-62EB-498A-BAE1-87A84852C73E}" type="CELLRANGE">
+                    <a:fld id="{0132638A-955E-4E11-8092-4103F0C9AB65}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1933,7 +1978,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2806AA78-F328-4BDB-A9B8-543207D1AB3E}" type="CELLRANGE">
+                    <a:fld id="{BF1EEDA3-8503-404C-B504-A887CF262280}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1967,7 +2012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E266629-BB90-4426-BD80-FFF0EE484A00}" type="CELLRANGE">
+                    <a:fld id="{2DDF535D-3710-4BF1-843B-6CEB36A9C8B2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2001,7 +2046,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C37D8AAC-9644-4021-988F-ABA32569A886}" type="CELLRANGE">
+                    <a:fld id="{5A8F1E02-575C-48D2-906E-DAB7EFBA3EF2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2035,7 +2080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28AD5030-53BE-435D-8308-25BDD981768C}" type="CELLRANGE">
+                    <a:fld id="{32A613AE-B696-48B6-B2E7-7C1A3D4624DA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2069,7 +2114,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D4CF663-D4CB-454E-9FC7-5B5267A8055D}" type="CELLRANGE">
+                    <a:fld id="{A624A405-0D13-4E05-9060-695C31678977}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2103,7 +2148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3FF4B65-79CC-43AD-B36D-256B40F0FA13}" type="CELLRANGE">
+                    <a:fld id="{37633D59-939B-4E57-ADCF-D225876A3D58}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2495,7 +2540,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DD182A6-E0AE-4A5C-8197-3B514884E96A}" type="CELLRANGE">
+                    <a:fld id="{B161E4B5-9DAF-4682-8FBC-299FE4E62A11}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2529,7 +2574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FEF2EDB7-E4B8-4422-8A97-50018AFDE6FA}" type="CELLRANGE">
+                    <a:fld id="{55444ACE-8BC7-4327-966B-B232DD38C858}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2563,7 +2608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00CED505-F1E0-49CD-9F5F-5D4D34E065DB}" type="CELLRANGE">
+                    <a:fld id="{951FAC74-DDDE-4D70-8AED-823F8A05AFCF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2597,7 +2642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A11BA8C3-517B-465D-8D10-AB53B6AB0954}" type="CELLRANGE">
+                    <a:fld id="{E3C41AA3-D17D-49AA-BE1A-9D8A3DDC73C2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2631,7 +2676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65C1956E-CFB5-4596-A07C-450414587DFF}" type="CELLRANGE">
+                    <a:fld id="{E32BE4A0-3C81-4F2A-8D80-44D4FB7C222B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2665,7 +2710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89D895C5-F723-441E-BDB7-A5416BC4C240}" type="CELLRANGE">
+                    <a:fld id="{B670A776-8ED4-4D2A-9D38-E9415AB5AC23}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2699,7 +2744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DCF4FDF-C84A-4A4A-8048-019990DD0966}" type="CELLRANGE">
+                    <a:fld id="{DD78DA00-5FEE-4149-9EDE-C6379303F499}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2999,7 +3044,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{002C4DA0-4D9D-4F4D-8EF8-74DDC5D18428}" type="CELLRANGE">
+                    <a:fld id="{F5A9FB44-2B34-444E-B027-E30DFF47813B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3033,7 +3078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D1C2298-F3B2-4859-A4B7-E4AE885560D8}" type="CELLRANGE">
+                    <a:fld id="{A3F594EF-C54A-4B0D-9A57-811D5A759F7D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3067,7 +3112,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08821A88-A455-47B3-B3CB-B16086FF9C51}" type="CELLRANGE">
+                    <a:fld id="{BBA024E1-B2C8-477A-BFC2-43297B76996F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3101,7 +3146,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA679200-EAEA-4277-99D8-0BFDE22B976F}" type="CELLRANGE">
+                    <a:fld id="{91DA8001-6921-4B69-8BD8-B890F11D29D1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3135,7 +3180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F2E5D92-5399-4E7A-A4EE-241075C7F2C6}" type="CELLRANGE">
+                    <a:fld id="{68B72D96-DC90-4C5C-B4FD-B9A40F18FFB8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3169,7 +3214,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59D19849-B809-4800-B954-E06D8B5A3630}" type="CELLRANGE">
+                    <a:fld id="{DC0BA63F-C983-4C9F-A12C-CB7142D29CA9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3203,7 +3248,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{225DDFD2-FE00-4BE0-B1A5-B927E5A946C7}" type="CELLRANGE">
+                    <a:fld id="{56789761-F644-4B36-B537-F1952F8CFE3A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3848,7 +3893,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E73D1417-4465-4F88-B93B-7E99962A16F9}" type="CELLRANGE">
+                    <a:fld id="{EFED3FB6-8BF2-42C3-8593-5E379D5EA975}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3882,7 +3927,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA8F7107-A333-44C7-97D2-97D8AA3ECBE3}" type="CELLRANGE">
+                    <a:fld id="{65B50CDF-43ED-4196-B6C0-4802AD20F46A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3916,7 +3961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{412B9A63-52FB-46F5-978C-1E56AC622278}" type="CELLRANGE">
+                    <a:fld id="{332A4FD8-C6F2-4FDD-ABD7-6D2F5C7D99B1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3950,7 +3995,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A0D8958-2DDC-4B6A-884B-A94986DA4D6A}" type="CELLRANGE">
+                    <a:fld id="{073B8B8A-A324-4406-B75D-B498BB3C08D6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3984,7 +4029,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4941E60-DC94-46EF-A3CB-82F71C559924}" type="CELLRANGE">
+                    <a:fld id="{6DD7D3C9-8756-461D-8BD3-FAAC0541889B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4018,7 +4063,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A6B9749-B999-4A7B-908B-CDC50383EE7C}" type="CELLRANGE">
+                    <a:fld id="{F42DFC62-C11E-4A8E-B983-2F4C1EEDB52A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4052,7 +4097,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92A6C129-C15F-4D6B-A5C7-648BB3154CEE}" type="CELLRANGE">
+                    <a:fld id="{E26274CF-5FE2-4EFD-9615-D9074F0710C7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4444,7 +4489,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A3EE97C-2662-4686-A9FA-9AEC8448D332}" type="CELLRANGE">
+                    <a:fld id="{6A3342DC-E013-4BEA-A11B-70AE79713877}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4478,7 +4523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3039E0AD-9B4D-4117-8EA9-FEC819BFD1F6}" type="CELLRANGE">
+                    <a:fld id="{6DF85B90-0D87-4C35-8711-31E644C626A2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4512,7 +4557,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B46D7427-F90C-481A-9365-FBF92D4A6447}" type="CELLRANGE">
+                    <a:fld id="{D2EE3A86-98FF-440A-919C-843D9407783B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4546,7 +4591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{320D20B2-F7B6-4924-A924-36569EB34F11}" type="CELLRANGE">
+                    <a:fld id="{4C0E84CE-A132-493C-9167-0D785DA723BD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4580,7 +4625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B891B97-B13A-4793-AACC-D6247F92AEDA}" type="CELLRANGE">
+                    <a:fld id="{D872825C-751C-42EA-8E58-C36F499A8645}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4614,7 +4659,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4BE31D9-D6B2-4039-AF27-A0DA770510D1}" type="CELLRANGE">
+                    <a:fld id="{2567FD6D-C9F8-46D5-AB65-673D4B82BB39}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4648,7 +4693,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DE53A14-D4D9-48AC-8456-61DCE6D2F0E2}" type="CELLRANGE">
+                    <a:fld id="{7C2582A5-D54C-47C4-80E7-13E56E482836}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4948,7 +4993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB1A8717-B9F4-470E-B0C7-3B9A99F46295}" type="CELLRANGE">
+                    <a:fld id="{F17E1F3F-747B-4373-BE7C-03ED27152145}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4982,7 +5027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{377F5B09-BAAE-43A4-AB53-4600E2F3CC36}" type="CELLRANGE">
+                    <a:fld id="{9011C473-CBAF-45F2-9E4C-85A61EB94981}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5016,7 +5061,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F48932E-B14C-4396-B7D3-F62758950551}" type="CELLRANGE">
+                    <a:fld id="{52277ACB-C5CB-4AE8-975C-901DF64B8B48}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5050,7 +5095,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EE10EBC-6963-4943-87F7-799F0C8B0AB1}" type="CELLRANGE">
+                    <a:fld id="{45F09833-63DF-4787-8D01-8A5DC819D1DE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5084,7 +5129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1621DA77-AE02-43C7-9B69-E15234773881}" type="CELLRANGE">
+                    <a:fld id="{D25885F7-3BE4-4DCF-969F-1DDE29D5B95B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5118,7 +5163,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07989CF5-5D50-49C7-99FE-A48D8383AC38}" type="CELLRANGE">
+                    <a:fld id="{49931141-51E9-4594-A7DB-CF1195295836}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5152,7 +5197,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4A10BF6-D802-46FD-968A-DC11447C0EC7}" type="CELLRANGE">
+                    <a:fld id="{64B2D3F6-B3B4-4948-B1D9-62255C8E6017}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5800,7 +5845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43426BAF-9B50-4CF8-AED9-C6FA11BFC1E4}" type="CELLRANGE">
+                    <a:fld id="{7A8E0808-647E-4D19-8B02-DF39C076DD45}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5834,7 +5879,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B55E870-5A7D-4833-A399-64A5D0E932D0}" type="CELLRANGE">
+                    <a:fld id="{28D28624-E52F-4302-BC72-75DD37AA377B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5868,7 +5913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{190598BF-CF52-47BE-BDF7-7D4CBC2ECA8B}" type="CELLRANGE">
+                    <a:fld id="{28643F28-172D-4FBC-B692-AA2545BDF051}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5902,7 +5947,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BE15B1D-5414-42DD-B8FA-1D80B98258EB}" type="CELLRANGE">
+                    <a:fld id="{CFE25E95-5A9C-4028-849B-084234D7E76D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5936,7 +5981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2689D825-7E04-448C-8455-6765C881AA3D}" type="CELLRANGE">
+                    <a:fld id="{424452D9-DE0D-46BD-85AD-44D6BF440334}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5970,7 +6015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D8DBEAF-BF31-4F19-A465-025535FC0467}" type="CELLRANGE">
+                    <a:fld id="{D15EAF91-972F-4EC3-8D91-04DAB1D9A4A7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6004,7 +6049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73160BE2-7E60-418D-9C6B-063EF8E11427}" type="CELLRANGE">
+                    <a:fld id="{EACDFA8F-2C9E-43E7-91F3-A314CCD3349D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6353,7 +6398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{632F69B6-F6D2-4FC9-B700-5EE883231373}" type="CELLRANGE">
+                    <a:fld id="{C12C8D69-74B5-4357-8E57-66E9FC7340DC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6387,7 +6432,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A347DF64-BE96-4AFE-B1DE-347BFE13A0BC}" type="CELLRANGE">
+                    <a:fld id="{B64845FD-16C6-470B-AE72-93E7193F63D3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6421,7 +6466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B381595B-52C3-4258-B05E-021586F1CE9B}" type="CELLRANGE">
+                    <a:fld id="{AB3980B8-1217-427F-A132-052ABD6B03E1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6455,7 +6500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72922D49-140D-4697-AE51-AE141309603D}" type="CELLRANGE">
+                    <a:fld id="{D37CB497-61B1-42ED-9133-C66F23AB948C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6489,7 +6534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E369CBC2-170B-41A7-AF42-A73259C52F64}" type="CELLRANGE">
+                    <a:fld id="{71D44543-7685-41C9-B6F9-EE523E516AD0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6523,7 +6568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD4AF743-6790-4550-A08E-2067C70525E9}" type="CELLRANGE">
+                    <a:fld id="{E0BDC957-D970-45E1-954C-4CAC285D6833}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6557,7 +6602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{167F5017-70A3-4AA5-BA16-15031A55FFB9}" type="CELLRANGE">
+                    <a:fld id="{ABD7ABC6-282C-487F-8B4F-4E074960DA28}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6894,7 +6939,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2F3A06E-6D67-4335-98FA-EB08107BD432}" type="CELLRANGE">
+                    <a:fld id="{E1F04AA9-4B76-4C73-9CBB-31B76B92B044}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6928,7 +6973,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5860D71-9748-4157-ABCA-331B74D35A6F}" type="CELLRANGE">
+                    <a:fld id="{007641CE-2985-445D-8B2E-43CCE52DA8FE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6962,7 +7007,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{862B002B-6DB2-468B-82DF-D4D4E972E836}" type="CELLRANGE">
+                    <a:fld id="{96B845EF-EDBE-4383-89F7-A8B48FE8418F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6996,7 +7041,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E2D0292-33CC-41B4-9247-0D44999AE1DD}" type="CELLRANGE">
+                    <a:fld id="{8D2ACB13-C001-4F5D-B8E8-147B1B61C5F5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7030,7 +7075,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8EC69D2-D020-47CC-B285-D54782E3089F}" type="CELLRANGE">
+                    <a:fld id="{4DAB1EDA-6739-4B8E-BCE1-6ABCFACDE3C6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7064,7 +7109,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCA84D41-D1C8-408C-B701-C3171936D951}" type="CELLRANGE">
+                    <a:fld id="{1A114F3B-7A17-46A1-8F84-6104B43FAE26}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7098,7 +7143,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{859B33E2-50BA-49B9-AE41-4A6D2E519A3D}" type="CELLRANGE">
+                    <a:fld id="{CB8D97E2-A852-427A-BD61-AB2CC84251DE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7737,7 +7782,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C558F2A-E475-4C40-973B-7E4E312133DB}" type="CELLRANGE">
+                    <a:fld id="{9BFA453F-D423-4388-8299-4D62695ED70F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7771,7 +7816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DBAFB4C-0476-4D33-B22C-8AB32D7D4EFD}" type="CELLRANGE">
+                    <a:fld id="{D7C3D6B8-3456-4E2D-9A74-1BE09D3A59F8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7805,7 +7850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27B30A28-164C-40F0-9ACB-06A1E095106B}" type="CELLRANGE">
+                    <a:fld id="{EC6453FB-913E-462D-B54F-964D64127172}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7839,7 +7884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96AE2603-5DB8-4ABB-B09C-5337BA55A6BD}" type="CELLRANGE">
+                    <a:fld id="{A40FC905-DAE4-4B53-AA70-607D65F2E838}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8186,7 +8231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BB0CB0B-5D9A-4D27-AD37-35F9C02ECB73}" type="CELLRANGE">
+                    <a:fld id="{F9901B07-27C3-47FE-A905-53501C73644C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8220,7 +8265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0112E037-99D1-4963-B39E-224A817A7DFC}" type="CELLRANGE">
+                    <a:fld id="{1F79FB7D-32E9-44A1-BFE3-56891D9D8693}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8254,7 +8299,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E77DCE7-3937-4186-A026-BDC1A3F37A42}" type="CELLRANGE">
+                    <a:fld id="{D344EC43-3ACB-4B67-9C2F-76333A3EAB4C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8288,7 +8333,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC6F7579-E53B-4938-B7A0-779DDFC89593}" type="CELLRANGE">
+                    <a:fld id="{D436F5E1-C181-45A8-BE55-54CD98AD4566}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8880,7 +8925,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D0CE4EE-0270-45F1-A749-80AC662AD048}" type="CELLRANGE">
+                    <a:fld id="{ADCAF5DC-E97D-4F17-8219-5B18577CF5A6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8914,7 +8959,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DEACAB9-D3BE-4724-A413-A00C1DBDCFE2}" type="CELLRANGE">
+                    <a:fld id="{45A9107F-E94E-42DE-994B-02E17B903A10}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8948,7 +8993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC730C4D-068E-4E05-9C63-AE88D0CF5FB8}" type="CELLRANGE">
+                    <a:fld id="{53636D26-CE7F-400C-BC12-6203A13B98C1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8982,7 +9027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C5D63F8-C61D-4382-BCDC-389AFEB8EF73}" type="CELLRANGE">
+                    <a:fld id="{80178E20-B19F-47AC-A7D6-EFCFD1F0C186}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9329,7 +9374,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FA57E79-FC1C-463B-A400-177775E79F50}" type="CELLRANGE">
+                    <a:fld id="{0A585459-AD4B-4303-B57C-16654152C07C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9363,7 +9408,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10859E10-9ADE-4F08-BCD3-23732D7EC3B2}" type="CELLRANGE">
+                    <a:fld id="{60C9A9A0-3032-4DF2-90FE-39FC65254F70}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9397,7 +9442,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F5936BA-2093-4C8A-BDA2-E981E0D5100A}" type="CELLRANGE">
+                    <a:fld id="{158A1AC0-9FC7-46DD-8793-56CB398D413C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9431,7 +9476,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52E0BBA7-206B-453C-B485-B472B5DF161D}" type="CELLRANGE">
+                    <a:fld id="{5D816E02-7110-409F-9450-131F363E5F69}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10004,7 +10049,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10038,7 +10082,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10072,7 +10115,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10106,7 +10148,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10140,7 +10181,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10174,7 +10214,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10208,7 +10247,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10736,6 +10774,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-677D-4B6A-B7C6-A4A0B4D5AB36}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -10745,7 +10786,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4051CC4-3808-422D-A6B4-D97F45126B10}" type="CELLRANGE">
+                    <a:fld id="{428AD412-C6D0-4DD4-B087-98FA55A86F17}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10779,7 +10820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F45F877-F407-42B1-8BD2-7B84D05761AC}" type="CELLRANGE">
+                    <a:fld id="{4EABB2AB-8882-4E56-8361-34AAAFFD148F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10813,7 +10854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77B4F96A-FDD4-43FD-A882-2D5B2941BAE6}" type="CELLRANGE">
+                    <a:fld id="{D8F6F95A-7DED-4E36-BC87-5010EF80631A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10847,7 +10888,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B397E69-BE85-4955-B305-30C7A92780E3}" type="CELLRANGE">
+                    <a:fld id="{EB1109A9-F290-47BF-ABC3-D68D2EE887A9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10881,7 +10922,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4BBC8CA-9834-4A42-A2FF-63C11F88A2DA}" type="CELLRANGE">
+                    <a:fld id="{E4F01764-E615-4D4A-A8D5-1C79E805F5F0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10915,7 +10956,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF4D855F-4363-4737-BA4B-2863C24D712A}" type="CELLRANGE">
+                    <a:fld id="{58E539ED-06FA-4CC7-A4C3-CDB0B1A8A5C4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10949,7 +10990,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EE8A0A7-CA5B-45E1-B8AA-42B91489227C}" type="CELLRANGE">
+                    <a:fld id="{ED9C82A9-FA38-4A4C-A0D6-089494BC236D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11510,7 +11551,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AF448A2-0B49-48F2-8A86-7E89E4439024}" type="CELLRANGE">
+                    <a:fld id="{92479B00-9F10-4D3A-A5EC-8F7E154577EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11529,7 +11570,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -11544,8 +11584,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2EC6EED-0E90-49AA-91DA-CF92CC3B4228}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{7FB70FCE-3CD0-4DCC-A045-82145C369FBE}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -11578,8 +11618,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{408393F3-5C21-4828-967F-AB81BB458EAF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6E8785BF-A6DB-403B-AD09-59EE41CAE5A5}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -11612,8 +11652,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{050CB356-E73B-4BD0-B857-60C7E6E4036D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{84D80F0D-6F83-46B1-91D4-8C5300EB76E5}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -11646,8 +11686,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6B8F35A-5995-4F89-AECF-D6578400B1A0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E11500D4-E9A6-41FE-BE59-D8680FF0F752}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12210,7 +12250,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48F3EAA1-30A7-46D3-9A32-B2AAA3248E64}" type="CELLRANGE">
+                    <a:fld id="{798A0921-2886-48AE-8779-720863EFC660}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12745,7 +12785,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12795,7 +12834,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12829,7 +12867,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12863,7 +12900,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12897,7 +12933,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12931,7 +12966,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12965,7 +12999,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12999,7 +13032,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13033,7 +13065,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13573,7 +13604,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>findbugs_87w!$C$1</c:f>
+              <c:f>'findbugs_87w (TR-1950X)'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13652,7 +13683,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>findbugs_87w!$A$2:$A$5</c:f>
+              <c:f>'findbugs_87w (TR-1950X)'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -13672,7 +13703,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>findbugs_87w!$C$2:$C$5</c:f>
+              <c:f>'findbugs_87w (TR-1950X)'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14068,7 +14099,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B59A211D-71DF-4991-9B15-E7400AF1174F}" type="CELLRANGE">
+                    <a:fld id="{511BF5E7-8380-462B-B552-9A1902DCB986}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14101,7 +14132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0CCFA7B-0B1C-46C5-A049-1791A8330E9A}" type="CELLRANGE">
+                    <a:fld id="{63C25A2C-95FD-48CF-971D-64F2D5E084FF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14134,7 +14165,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB4AE49D-F8B8-470E-9A30-B777AC82DAE6}" type="CELLRANGE">
+                    <a:fld id="{B7B9153E-960A-4736-85B8-1394802F1669}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14167,7 +14198,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EEAFC78-1AD8-4249-91FB-CD9E33311947}" type="CELLRANGE">
+                    <a:fld id="{2BA9612B-F589-44B0-A824-B76ED5617F2A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14200,7 +14231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{161D42FB-5F16-4DBC-A08F-40036A3E735A}" type="CELLRANGE">
+                    <a:fld id="{CFCD6A09-66F8-4457-90FB-F0813F229BC5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14233,7 +14264,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83B8DCAB-DEAB-438A-B131-CFD1E78D369E}" type="CELLRANGE">
+                    <a:fld id="{E3DA08B0-7BD1-421C-BE17-E4D8B00A909E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14266,7 +14297,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D66CEF2E-06AB-4B86-A476-F5856F70C46F}" type="CELLRANGE">
+                    <a:fld id="{3741C141-647D-4623-B5DE-11EFC7ABD425}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14858,7 +14889,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14892,7 +14922,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14926,7 +14955,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14960,7 +14988,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14994,7 +15021,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15028,7 +15054,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15062,7 +15087,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15096,7 +15120,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16420,7 +16443,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16454,7 +16476,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16488,7 +16509,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16522,7 +16542,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16556,7 +16575,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17062,7 +17080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BD4BE65-D654-4582-BB50-DC2A44660C13}" type="CELLRANGE">
+                    <a:fld id="{307669C2-38FB-4437-A326-0A8254D1AA7B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17094,7 +17112,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C13595FF-44C8-46C3-9EA8-D21F6D755129}" type="CELLRANGE">
+                    <a:fld id="{962BA173-51AF-49AF-9F82-FF2F33F79BAE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17127,7 +17145,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F84233D-E4B0-42EB-B4F2-32AF6A132F30}" type="CELLRANGE">
+                    <a:fld id="{1A0C83FD-90EB-4F44-9B1F-567729AAF5A5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17160,7 +17178,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E8D0B03-717E-4CF4-82DF-8D3AF209066A}" type="CELLRANGE">
+                    <a:fld id="{CAE30895-BB72-4CA0-B487-7986F22057C8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17193,7 +17211,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACD1F815-DB58-4463-A6DB-7060F968F2B9}" type="CELLRANGE">
+                    <a:fld id="{55D595F1-CA96-4C81-A582-4C149221E1E0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17226,7 +17244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1388921-FFED-43C6-85C3-D6CCE2762A48}" type="CELLRANGE">
+                    <a:fld id="{D42E7608-32AF-4BE9-8EA4-B94733CE5F27}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17259,7 +17277,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A31CEE81-58EB-4EB7-8537-DFD9E2E7B50F}" type="CELLRANGE">
+                    <a:fld id="{AE6D940B-E60C-4EB3-988A-F7293BB8CDFB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17292,7 +17310,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21D9A303-D078-4855-8781-73D89D4BE7F1}" type="CELLRANGE">
+                    <a:fld id="{728980BD-1239-4282-B3AE-F423B6CCED9D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17325,7 +17343,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D974005E-09EA-43E8-9CA4-B1DD63EF4107}" type="CELLRANGE">
+                    <a:fld id="{F0D22D80-FE66-4E54-9EF6-2158F5741ABD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17358,7 +17376,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA84CD24-D2F4-434E-9A5E-A8CBAA96237F}" type="CELLRANGE">
+                    <a:fld id="{5050334D-76C3-47D8-ADFF-2569FB1CF878}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17391,7 +17409,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2D96302-796A-4FB6-874A-1ACAF0F71255}" type="CELLRANGE">
+                    <a:fld id="{C20B61FE-741F-4C7F-BE60-690D44FAF870}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17424,7 +17442,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D7050D0-1B79-4CF9-AD28-5F62FE77C2E7}" type="CELLRANGE">
+                    <a:fld id="{DEC536BC-53EE-4A5B-89BD-5CC70D519909}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18006,7 +18024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AE99897-3F61-43ED-8FB6-E50C649CC8B5}" type="CELLRANGE">
+                    <a:fld id="{12FDA1E8-5287-4790-AD0C-800481342B34}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18040,7 +18058,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2362F356-D6F8-4A2B-9B1D-8C22319849C7}" type="CELLRANGE">
+                    <a:fld id="{BD4BE961-3465-4E67-A10B-4A20DF8379BF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18074,7 +18092,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66D377A0-202B-44C5-AD58-FDFED4A36A38}" type="CELLRANGE">
+                    <a:fld id="{C805B7E5-A74F-4056-926A-AE988E199560}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18108,7 +18126,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E8B1D8B-12C1-4A64-8B14-A9AF9EE32570}" type="CELLRANGE">
+                    <a:fld id="{353D6B32-7360-4817-B1AB-C5A43FE8852B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18142,7 +18160,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0104B7B0-B9E8-4CB3-89C8-8F158914E642}" type="CELLRANGE">
+                    <a:fld id="{DB4BA013-401E-4A42-BADE-3467746B16B7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18421,7 +18439,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D9D18F8-B9D6-4D75-B6C7-C3E6A1004592}" type="CELLRANGE">
+                    <a:fld id="{082F5599-E42E-4285-A50C-B17B74C3BB24}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18455,7 +18473,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B10CB70-2074-4357-A81A-DF603C70EDA9}" type="CELLRANGE">
+                    <a:fld id="{D74789A4-231A-44A6-89E5-57E5F62D3D42}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18489,7 +18507,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6D77E97-28C3-435D-9749-371697CBAC1A}" type="CELLRANGE">
+                    <a:fld id="{AED340BE-C6D6-410C-8173-D2CAD38C4734}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18523,7 +18541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C53D7F0A-1114-4755-B878-FC0771C33984}" type="CELLRANGE">
+                    <a:fld id="{ED148053-3DF3-4346-BCF5-70F9AB023EF9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18557,7 +18575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A71D2D8-0E7C-4720-818D-016B7C8DD566}" type="CELLRANGE">
+                    <a:fld id="{6530E269-3318-40D5-85D4-1E7F3AF733C5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18836,7 +18854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2B6F687-AF2E-45BD-AEBF-93E04DEA6C8D}" type="CELLRANGE">
+                    <a:fld id="{5ABEE322-0EA2-4CFD-8044-A6560A12D4E5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18870,7 +18888,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B2F8F7D-1C37-4E5A-8218-6E124723CAD5}" type="CELLRANGE">
+                    <a:fld id="{77734E16-EA7F-4B13-ADE3-00DB858BD102}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18904,7 +18922,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25FACEB5-9222-4EBE-B12B-572B85C563FE}" type="CELLRANGE">
+                    <a:fld id="{D17E2E8D-D5C1-4402-B498-674C37C1A0ED}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18938,7 +18956,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DE3BB0E-7A20-4FF8-87F0-9AB4F5AE4F0F}" type="CELLRANGE">
+                    <a:fld id="{F5458F7E-5860-4E3B-BA81-7E3C9D3CFD58}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18972,7 +18990,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C038C1E-2775-4CC0-9582-E7434A04E13B}" type="CELLRANGE">
+                    <a:fld id="{2697ED77-1398-4051-98B6-2C0920BBD829}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19700,7 +19718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57622DE2-E6D3-46E2-A229-D63DBAD68349}" type="CELLRANGE">
+                    <a:fld id="{DDF5A204-F50B-4CC7-B5EB-15D9F8BB34C4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19733,7 +19751,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A94C2695-48D4-4D3A-8191-EE3971ED97CE}" type="CELLRANGE">
+                    <a:fld id="{3FC45522-F942-436B-B435-4EC89D3BC2EB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19766,7 +19784,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2D6DA5E-51B1-4658-9C0D-8DA4D1EDB6F3}" type="CELLRANGE">
+                    <a:fld id="{303B8ED9-BF9A-4B7E-90AD-07D1FD7BD6FE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19799,7 +19817,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7853E5A0-37B6-4413-9F5E-155D33A578B1}" type="CELLRANGE">
+                    <a:fld id="{F609389D-4EB1-4F32-A6F0-0F28E8235F94}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19832,7 +19850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{804B0B4A-BF68-42E0-AAE9-BEEC5FC33245}" type="CELLRANGE">
+                    <a:fld id="{5C49E056-F825-47B1-BB2F-2A87F7B26180}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20089,7 +20107,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{756EF6EC-CA1C-4869-A385-C48782AF690D}" type="CELLRANGE">
+                    <a:fld id="{8A5F3D8E-EB55-4F01-848C-DBFE16D4C716}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20122,7 +20140,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C506C26B-A219-4864-8907-154AC6A8BE46}" type="CELLRANGE">
+                    <a:fld id="{44F7AC34-6ECC-44C5-B6A9-E1A9E3919D91}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20155,7 +20173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2788B1BC-0DB4-4F37-BB88-B8245DB9B146}" type="CELLRANGE">
+                    <a:fld id="{03E882ED-AA76-4ADB-94E1-13DB0379177B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20188,7 +20206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AF9368E-FE70-4AD9-AA1C-8D257CA0F699}" type="CELLRANGE">
+                    <a:fld id="{24B5BB6F-80FE-4358-9727-37559637DCB9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20221,7 +20239,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0C694B2-C5C7-4575-A020-6D81DD0BD8F5}" type="CELLRANGE">
+                    <a:fld id="{0D8B3540-8406-4D5F-8940-C17B1BE2C038}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20485,7 +20503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BBD0EA1-9E32-43BD-92C9-6DA80F8DF57D}" type="CELLRANGE">
+                    <a:fld id="{44A756CC-E2C5-4787-8B2C-94CBA38DFA64}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20518,7 +20536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C4C7F05-B246-493E-9998-B92C9B8626F1}" type="CELLRANGE">
+                    <a:fld id="{B746CFE0-467D-42C3-98BA-33872022CD28}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20551,7 +20569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FF96668-59A8-4B5D-AABF-BA39FD92E3B7}" type="CELLRANGE">
+                    <a:fld id="{FEA24D2C-908D-4082-B4A1-0947BD2CA5A0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20584,7 +20602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C77A011-019E-4CAF-8626-4BA5141C834E}" type="CELLRANGE">
+                    <a:fld id="{77938646-E50E-47DF-A43F-DFA9D321A453}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20617,7 +20635,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43C93F8F-E091-476D-B708-2B713BAB247B}" type="CELLRANGE">
+                    <a:fld id="{D09DB1CB-0E7E-4786-BDE6-5043671471A8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21252,7 +21270,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32E7A732-F11D-43E6-936C-9A5B9565812E}" type="CELLRANGE">
+                    <a:fld id="{7142F102-50C8-4936-AF1D-CF0EF440CE0F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21286,7 +21304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49C64E91-6640-4EEB-9A48-F85655279DA3}" type="CELLRANGE">
+                    <a:fld id="{7406355A-EF57-49EA-AB90-F3156DDDEBE9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21320,7 +21338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A5EA6D0-38DB-48C9-AD03-FA7889D4334C}" type="CELLRANGE">
+                    <a:fld id="{7AE772B8-739D-4A2C-95F1-95E354831639}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21354,7 +21372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1701425E-8D37-4C57-87C7-DE6398EBD2EA}" type="CELLRANGE">
+                    <a:fld id="{03778669-E13B-4A7F-8E47-260704FB0A7F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21388,7 +21406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B2A5C50-90C9-4CE2-8F3C-A26F87EE05FF}" type="CELLRANGE">
+                    <a:fld id="{24D71945-F61F-4058-AAAE-88147CE15D08}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21685,7 +21703,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFE48B65-00CA-4C0D-8685-087A88ACC55E}" type="CELLRANGE">
+                    <a:fld id="{BB317263-2A22-4E0C-ADBA-27E5E99DDB85}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21719,7 +21737,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F85A9D58-F864-4558-A81F-BD5B3508EA8B}" type="CELLRANGE">
+                    <a:fld id="{2E459196-7D8B-473E-9191-F74E0A7F1D09}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21753,7 +21771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A94F495C-5741-4EB7-BB26-3506D6FB00CC}" type="CELLRANGE">
+                    <a:fld id="{0AD61157-C989-44EE-9E55-E2D4545FBC37}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21787,7 +21805,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{810AF5CE-A938-46AC-ADA8-D4DDDF9C11C0}" type="CELLRANGE">
+                    <a:fld id="{FEEAC33D-8493-49A0-A6EA-E78BC4F52A63}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21821,7 +21839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92F70DCD-DA24-4081-AB78-59001EB2322D}" type="CELLRANGE">
+                    <a:fld id="{80FA399D-04DC-4B40-8820-17FABCF4CF21}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22118,7 +22136,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08214E58-1A45-4C58-A906-14281C6C619B}" type="CELLRANGE">
+                    <a:fld id="{3B7F3CDD-8EF8-48F8-9C63-F445FF006BFE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22152,7 +22170,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FED633A-8087-4C87-994A-4C465AD42CEE}" type="CELLRANGE">
+                    <a:fld id="{2B44390E-2B64-472A-A031-F66D06845343}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22186,7 +22204,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68924CC6-0614-43F7-BD7B-E7BBDFB95E98}" type="CELLRANGE">
+                    <a:fld id="{BE3D27F2-E736-4EB3-8C16-458BA8F55410}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22220,7 +22238,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF9CE4A9-0AEB-4AAC-92C9-3224F0EC97D3}" type="CELLRANGE">
+                    <a:fld id="{24259775-B4A6-4820-9199-355EAEFF99ED}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22254,7 +22272,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DF30069-FB89-4451-8D62-543B7E1CF565}" type="CELLRANGE">
+                    <a:fld id="{F2AF2F9B-31CB-47E5-B2DC-2E4988985753}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23022,7 +23040,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47B2C3C9-DBAC-4CC3-B90A-C15B8662094F}" type="CELLRANGE">
+                    <a:fld id="{2D6AD6BA-FC62-4759-8133-489BF9A4543E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23056,7 +23074,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAD17B0A-57AE-4C3A-8E48-5CC906EB1115}" type="CELLRANGE">
+                    <a:fld id="{A8B20F1B-5884-4AFA-B272-3C78C601E897}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23090,7 +23108,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A029A88E-260A-4569-8231-3E5F87549AC3}" type="CELLRANGE">
+                    <a:fld id="{6700BF00-A564-40A7-AE47-142BEB47D0E0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23124,7 +23142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18F200C9-AD9C-46B1-BE7F-91DCD686DDC5}" type="CELLRANGE">
+                    <a:fld id="{A8A51115-7E40-48D4-B7A9-B8FBD046D96D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23406,7 +23424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AAF49FB-F5F8-4313-8A92-1CB270457C83}" type="CELLRANGE">
+                    <a:fld id="{5CE58722-8CAF-4EED-8CA2-F7C8689CAAA4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23440,7 +23458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D422E9F-2FD7-49F1-B29D-AB9F22EDE840}" type="CELLRANGE">
+                    <a:fld id="{00142B8A-B49C-4927-9DBF-88735464477C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23474,7 +23492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AC7FDF8-2B73-45E0-9047-40D3EFBD0389}" type="CELLRANGE">
+                    <a:fld id="{7DD89DE3-8839-4D36-B20C-D1E98B145340}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23508,7 +23526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF629C9D-0BF5-49FC-838D-3FC44631E13D}" type="CELLRANGE">
+                    <a:fld id="{16BDC87E-28F5-486A-915E-A4D73A9FFFEC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23790,7 +23808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3FEC2C6-CB10-4AEC-9023-772DF1464AD3}" type="CELLRANGE">
+                    <a:fld id="{57549374-192E-47F5-B282-7C1F5FF7585F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23824,7 +23842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8C080C2-6B80-487B-8D62-BFECBE3BFA42}" type="CELLRANGE">
+                    <a:fld id="{87383C5B-2A7B-4078-ABA3-12A0B2F07B21}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23858,7 +23876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0C039F4-5D36-4C42-B2CC-40B80795F853}" type="CELLRANGE">
+                    <a:fld id="{CDA2DF7E-9094-4BEF-BFAC-E4FF12B76534}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23892,7 +23910,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B3A0121-AF1D-4680-A6BD-75A2F8B3AFC7}" type="CELLRANGE">
+                    <a:fld id="{B2777F1F-CCAB-4CEF-B464-138924E94C16}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24824,7 +24842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F895482A-6F11-4B3F-A9EF-9CC6BEC98A2D}" type="CELLRANGE">
+                    <a:fld id="{CFF75942-FF36-4478-B76D-52C28819553D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24858,7 +24876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EFE498E-0D6F-41AC-A848-368D678260A8}" type="CELLRANGE">
+                    <a:fld id="{4E3F6B15-BE31-4592-A7CF-84E67CD0D093}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24892,7 +24910,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0290886B-43FD-41E1-987A-BA800F6A7791}" type="CELLRANGE">
+                    <a:fld id="{1CA71CEF-2614-4919-80A9-C5F4CA741955}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24926,7 +24944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89420A56-1519-4B9F-8A86-F7465B6D6E27}" type="CELLRANGE">
+                    <a:fld id="{0D163A3B-E694-4A9E-AEA7-53E7765FC9D1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -25208,7 +25226,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4F8848E-25BD-47C9-8875-EA005949BB28}" type="CELLRANGE">
+                    <a:fld id="{D9C5EDA4-6AB0-4247-9949-E49FFD93609A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -25242,7 +25260,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{260147CB-1FF3-49C3-8359-5F87EEDD0340}" type="CELLRANGE">
+                    <a:fld id="{1D311AE4-E461-4017-92BC-86AFA47BEBFA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -25276,7 +25294,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9D231C4-DCCA-4EF0-8167-023B66BA9C0A}" type="CELLRANGE">
+                    <a:fld id="{8B7C0FFC-E71D-44E1-90FE-0816DD076AA3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -25310,7 +25328,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60FD594C-F132-4E2C-86A0-6E88833A82C1}" type="CELLRANGE">
+                    <a:fld id="{47F7B50D-856C-4F60-A8FF-7C1908EECC8C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -25592,7 +25610,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8E24DB0-1CF0-4CF7-898E-4BE460BBD3A3}" type="CELLRANGE">
+                    <a:fld id="{89DF9897-0856-47EB-8559-576790AD698D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -25626,7 +25644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFB68422-6A32-4BFF-8AFC-F8DB0211DCC9}" type="CELLRANGE">
+                    <a:fld id="{6EDBE2C5-0A50-4C65-A3F4-44ACA80D245D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -25660,7 +25678,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02A38255-CDDE-4F00-AD3D-04FD45415422}" type="CELLRANGE">
+                    <a:fld id="{30A890C4-5E2E-43EA-8147-BACE4A00D65B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -25694,7 +25712,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BEF6E1B-6533-4E25-A900-99914EB9FF7F}" type="CELLRANGE">
+                    <a:fld id="{ACBA2088-4A4B-4B84-AE00-E22B8AFD5831}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -26818,7 +26836,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C426BC3-FFE4-45E6-AD0D-891C1204F2B7}" type="CELLRANGE">
+                    <a:fld id="{A857D2FC-CD9B-461A-A673-711F6550B537}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -26852,7 +26870,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A023B84D-0ACD-451E-835B-EFD718802B58}" type="CELLRANGE">
+                    <a:fld id="{4699D93A-22B9-44C4-BC8E-8623F5F6F525}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -26886,7 +26904,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D4C7C83-1F20-49B7-8A62-053637B78736}" type="CELLRANGE">
+                    <a:fld id="{7646076D-F8AF-4CE8-BAA8-4D6728905F49}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -26920,7 +26938,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10715F00-1D2D-426B-80EE-5F67846264B1}" type="CELLRANGE">
+                    <a:fld id="{E0D75FEA-2DF2-461A-AB73-4970827C65BA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -27202,7 +27220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96341061-556B-40B9-AE73-4F9877B1D079}" type="CELLRANGE">
+                    <a:fld id="{99487E46-30BD-4A35-B953-7C41AD8A5388}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -27236,7 +27254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EA8A04C-A0C8-4D4C-9452-2DCF47885B83}" type="CELLRANGE">
+                    <a:fld id="{46D48936-8944-4BD3-BDBD-8F9E1C2759C0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -27270,7 +27288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D85E0E3-24E0-4063-8B32-0E0E84D13AE2}" type="CELLRANGE">
+                    <a:fld id="{37BC89A1-8E20-4F76-83DD-C2C94D149158}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -27304,7 +27322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59D7E73B-B7CF-41C7-A615-B439B78D2677}" type="CELLRANGE">
+                    <a:fld id="{378C5088-D2C0-40EA-A2FF-E7BD8FEACE4D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -27586,7 +27604,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CABAA7A-0CA3-4625-B952-0E6A91E5764A}" type="CELLRANGE">
+                    <a:fld id="{882A42FC-2DB1-4F54-B853-DC89658418F9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -27620,7 +27638,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEC6F989-CF1E-4B9B-B633-BB3D07EFDAB0}" type="CELLRANGE">
+                    <a:fld id="{0D6A6E50-A09A-4CB5-8F00-A6FEA3384735}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -27654,7 +27672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7A39721-0A54-47AD-B269-A9F8DF691319}" type="CELLRANGE">
+                    <a:fld id="{9AD7DF00-ECCB-4789-9557-1146F2302DEF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -27688,7 +27706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5515BC56-9BA9-47B4-AB06-00C7CEBB2425}" type="CELLRANGE">
+                    <a:fld id="{14AAC1E4-FD04-447E-B241-0F8738F945F5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -41696,15 +41714,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -41718,7 +41736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -41732,7 +41750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -41746,7 +41764,7 @@
         <v>8.2469999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -41760,7 +41778,7 @@
         <v>54.843000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -41774,7 +41792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -41788,7 +41806,7 @@
         <v>8.5909999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -41802,7 +41820,7 @@
         <v>61.316000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -41816,7 +41834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -41830,7 +41848,7 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -41844,7 +41862,7 @@
         <v>74.534999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -41858,7 +41876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -41872,7 +41890,7 @@
         <v>8.5719999999999992</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -41901,53 +41919,53 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -41979,7 +41997,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -42011,7 +42029,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
@@ -42043,7 +42061,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -42075,7 +42093,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
@@ -42107,7 +42125,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
@@ -42139,7 +42157,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -42171,7 +42189,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
@@ -42203,7 +42221,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -42235,7 +42253,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
@@ -42266,9 +42284,9 @@
       <c r="J11" s="1">
         <v>687</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -42299,9 +42317,9 @@
       <c r="J12" s="1">
         <v>740</v>
       </c>
-      <c r="L12" s="21"/>
+      <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
@@ -42332,9 +42350,9 @@
       <c r="J13" s="1">
         <v>910</v>
       </c>
-      <c r="L13" s="21"/>
+      <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
@@ -42365,9 +42383,9 @@
       <c r="J14" s="1">
         <v>1053</v>
       </c>
-      <c r="L14" s="21"/>
+      <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -42398,9 +42416,9 @@
       <c r="J15" s="1">
         <v>1064</v>
       </c>
-      <c r="L15" s="21"/>
+      <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -42431,9 +42449,9 @@
       <c r="J16" s="1">
         <v>858</v>
       </c>
-      <c r="L16" s="21"/>
+      <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -42464,31 +42482,31 @@
       <c r="J17" s="1">
         <v>1244</v>
       </c>
-      <c r="L17" s="21"/>
+      <c r="L17" s="18"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L18" s="21"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L18" s="18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L19" s="21"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L19" s="18"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="21"/>
+    <row r="20" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L20" s="18"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L21" s="21"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L21" s="18"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L22" s="21"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L22" s="18"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L23" s="21"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L23" s="18"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L24" s="21"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L24" s="18"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L25" s="21"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L25" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42505,54 +42523,54 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.21875" style="22"/>
+    <col min="1" max="1" width="18.53515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4609375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.23046875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.53515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.84375" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3046875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.23046875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -42584,7 +42602,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -42616,7 +42634,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
@@ -42648,7 +42666,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -42680,7 +42698,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
@@ -42712,7 +42730,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
@@ -42744,7 +42762,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -42776,7 +42794,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
@@ -42808,7 +42826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -42840,7 +42858,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
@@ -42872,7 +42890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -42904,7 +42922,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
@@ -42936,7 +42954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
@@ -42968,7 +42986,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -43000,7 +43018,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -43032,7 +43050,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -43064,8 +43082,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1">
@@ -43089,8 +43107,8 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1">
@@ -43128,53 +43146,53 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -43206,7 +43224,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -43238,7 +43256,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
@@ -43270,7 +43288,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -43302,7 +43320,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
@@ -43334,7 +43352,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
@@ -43366,7 +43384,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -43398,7 +43416,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
@@ -43430,7 +43448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -43462,7 +43480,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
@@ -43494,7 +43512,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -43526,7 +43544,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
@@ -43558,7 +43576,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
@@ -43590,7 +43608,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -43622,7 +43640,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -43654,7 +43672,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -43686,7 +43704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -43710,7 +43728,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -43748,61 +43766,61 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>111</v>
       </c>
@@ -43836,7 +43854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -43872,7 +43890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -43908,7 +43926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -43944,7 +43962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
@@ -43980,7 +43998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>111</v>
       </c>
@@ -44016,7 +44034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
@@ -44052,7 +44070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
@@ -44088,7 +44106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -44124,7 +44142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -44160,7 +44178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -44196,7 +44214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
@@ -44232,7 +44250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -44268,7 +44286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>106</v>
       </c>
@@ -44304,7 +44322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
@@ -44340,7 +44358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>106</v>
       </c>
@@ -44376,7 +44394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>112</v>
       </c>
@@ -44410,7 +44428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
@@ -44446,7 +44464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>112</v>
       </c>
@@ -44482,7 +44500,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -44518,7 +44536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>112</v>
       </c>
@@ -44554,7 +44572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>112</v>
       </c>
@@ -44590,7 +44608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>112</v>
       </c>
@@ -44626,7 +44644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -44676,61 +44694,61 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>111</v>
       </c>
@@ -44764,7 +44782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -44800,7 +44818,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -44836,7 +44854,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -44872,7 +44890,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
@@ -44908,7 +44926,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>111</v>
       </c>
@@ -44944,7 +44962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
@@ -44980,7 +44998,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
@@ -45016,7 +45034,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -45051,7 +45069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -45087,7 +45105,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -45123,7 +45141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
@@ -45159,7 +45177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -45195,7 +45213,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>106</v>
       </c>
@@ -45231,7 +45249,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
@@ -45267,7 +45285,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>106</v>
       </c>
@@ -45303,7 +45321,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>112</v>
       </c>
@@ -45339,7 +45357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
@@ -45375,7 +45393,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>112</v>
       </c>
@@ -45411,7 +45429,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -45447,7 +45465,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>112</v>
       </c>
@@ -45483,7 +45501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>112</v>
       </c>
@@ -45519,7 +45537,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>112</v>
       </c>
@@ -45555,7 +45573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -45606,61 +45624,61 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>111</v>
       </c>
@@ -45696,7 +45714,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -45732,7 +45750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -45768,7 +45786,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -45804,7 +45822,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
@@ -45840,7 +45858,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>111</v>
       </c>
@@ -45876,7 +45894,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
@@ -45912,7 +45930,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
@@ -45948,7 +45966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -45984,7 +46002,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -46020,7 +46038,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -46056,7 +46074,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
@@ -46092,7 +46110,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -46128,7 +46146,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>106</v>
       </c>
@@ -46164,7 +46182,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
@@ -46200,7 +46218,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>106</v>
       </c>
@@ -46236,7 +46254,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>112</v>
       </c>
@@ -46270,7 +46288,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
@@ -46306,7 +46324,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>112</v>
       </c>
@@ -46342,7 +46360,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -46378,7 +46396,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>112</v>
       </c>
@@ -46414,7 +46432,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>112</v>
       </c>
@@ -46450,7 +46468,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>112</v>
       </c>
@@ -46486,7 +46504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -46536,61 +46554,61 @@
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>111</v>
       </c>
@@ -46626,7 +46644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -46664,7 +46682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -46702,7 +46720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -46740,7 +46758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
@@ -46778,7 +46796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
@@ -46816,7 +46834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
@@ -46854,7 +46872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
@@ -46892,7 +46910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -46930,7 +46948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -46982,61 +47000,61 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>111</v>
       </c>
@@ -47072,7 +47090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -47110,7 +47128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -47148,7 +47166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -47186,7 +47204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
@@ -47224,7 +47242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
@@ -47262,7 +47280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
@@ -47300,7 +47318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
@@ -47338,7 +47356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -47376,7 +47394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -47422,366 +47440,449 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F390C6D7-5BE0-4718-A1B9-54C5D7BC45DE}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43302</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1105</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8866</v>
+      </c>
+      <c r="D2" s="1">
+        <v>138</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1">
-        <v>10723</v>
+        <v>2671</v>
       </c>
       <c r="D3" s="1">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="E3" s="1">
-        <v>4.0380000000000003</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+        <v>3.319</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1">
-        <v>12548</v>
+        <v>4541</v>
       </c>
       <c r="D4" s="1">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="E4" s="1">
-        <v>3.4510000000000001</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+        <v>1.952</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1">
-        <v>12760</v>
+        <v>5474</v>
       </c>
       <c r="D5" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E5" s="1">
-        <v>3.3940000000000001</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+        <v>1.62</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9709</v>
+      </c>
+      <c r="D6" s="1">
+        <v>351</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="1">
-        <v>17084</v>
-      </c>
-      <c r="D6" s="1">
-        <v>414</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.5350000000000001</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="C7" s="1">
+        <v>43302</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1105</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="1">
-        <v>319923</v>
-      </c>
-      <c r="D7" s="1">
-        <v>13484</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1">
-        <v>68676</v>
+        <v>10723</v>
       </c>
       <c r="D8" s="1">
-        <v>5287</v>
+        <v>384</v>
       </c>
       <c r="E8" s="1">
-        <v>4.6580000000000004</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+        <v>4.0380000000000003</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1">
-        <v>60922</v>
+        <v>12548</v>
       </c>
       <c r="D9" s="1">
-        <v>2691</v>
+        <v>339</v>
       </c>
       <c r="E9" s="1">
-        <v>5.2510000000000003</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+        <v>3.4510000000000001</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1">
-        <v>58609</v>
+        <v>12760</v>
       </c>
       <c r="D10" s="1">
-        <v>847</v>
+        <v>143</v>
       </c>
       <c r="E10" s="1">
-        <v>5.4589999999999996</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1">
-        <v>65550</v>
+        <v>17084</v>
       </c>
       <c r="D11" s="1">
-        <v>791</v>
+        <v>414</v>
       </c>
       <c r="E11" s="1">
-        <v>4.8810000000000002</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1">
-        <v>1192448</v>
+        <v>319923</v>
       </c>
       <c r="D12" s="1">
-        <v>48753</v>
+        <v>13484</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1">
-        <v>246599</v>
+        <v>68676</v>
       </c>
       <c r="D13" s="1">
-        <v>7179</v>
+        <v>5287</v>
       </c>
       <c r="E13" s="1">
-        <v>4.8360000000000003</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+        <v>4.6580000000000004</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1">
-        <v>233434</v>
+        <v>60922</v>
       </c>
       <c r="D14" s="1">
-        <v>3689</v>
+        <v>2691</v>
       </c>
       <c r="E14" s="1">
-        <v>5.1079999999999997</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+        <v>5.2510000000000003</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C15" s="1">
-        <v>170410</v>
+        <v>58609</v>
       </c>
       <c r="D15" s="1">
-        <v>5299</v>
+        <v>847</v>
       </c>
       <c r="E15" s="1">
-        <v>6.9980000000000002</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+        <v>5.4589999999999996</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="1">
+        <v>65550</v>
+      </c>
+      <c r="D16" s="1">
+        <v>791</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.8810000000000002</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
+        <v>1192448</v>
+      </c>
+      <c r="D17" s="1">
+        <v>48753</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>246599</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7179</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>233434</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3689</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.1079999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>170410</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5299</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.9980000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
         <v>196487</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D21" s="1">
         <v>2233</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E21" s="1">
         <v>6.069</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47797,33 +47898,33 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -47840,7 +47941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -47867,36 +47968,36 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -47909,11 +48010,9 @@
       <c r="D2" s="2">
         <v>42803</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -47930,7 +48029,7 @@
         <v>4.8250000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -47947,7 +48046,7 @@
         <v>2.1080000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -47964,7 +48063,7 @@
         <v>8.6189999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -47981,7 +48080,7 @@
         <v>6.3159999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -47994,11 +48093,9 @@
       <c r="D7" s="1">
         <v>86659</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -48015,7 +48112,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -48032,7 +48129,7 @@
         <v>2.2370000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -48049,7 +48146,7 @@
         <v>10.032999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -48063,10 +48160,10 @@
         <v>8299</v>
       </c>
       <c r="E11" s="1">
-        <v>2.048</v>
+        <v>10.442</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -48079,11 +48176,9 @@
       <c r="D12" s="1">
         <v>145540</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -48100,7 +48195,7 @@
         <v>4.8630000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -48117,7 +48212,7 @@
         <v>2.367</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -48134,7 +48229,7 @@
         <v>10.000999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -48153,6 +48248,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -48164,57 +48260,57 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -48241,7 +48337,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -48272,7 +48368,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -48303,7 +48399,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -48334,7 +48430,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -48365,7 +48461,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -48396,7 +48492,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -48429,7 +48525,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -48477,57 +48573,57 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -48558,7 +48654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -48593,7 +48689,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -48628,7 +48724,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -48663,7 +48759,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -48698,7 +48794,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -48733,7 +48829,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -48768,7 +48864,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -48813,61 +48909,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C887BC-4B81-4F05-A11B-8E73BCF050BB}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -48898,7 +48994,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -48933,7 +49029,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -48968,7 +49064,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -49003,7 +49099,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -49038,7 +49134,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -49087,23 +49183,23 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.23046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -49141,7 +49237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -49167,7 +49263,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -49203,7 +49299,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -49237,7 +49333,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -49273,7 +49369,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -49309,7 +49405,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -49339,7 +49435,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -49375,7 +49471,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -49409,7 +49505,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -49447,7 +49543,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -49485,7 +49581,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -49523,7 +49619,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -49561,7 +49657,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -49599,7 +49695,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -49637,7 +49733,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -49675,7 +49771,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -49705,7 +49801,7 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -49743,7 +49839,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -49781,7 +49877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -49819,7 +49915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -49857,7 +49953,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -49905,57 +50001,57 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -49984,7 +50080,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -50015,7 +50111,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -50048,7 +50144,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -50081,7 +50177,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -50114,7 +50210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -50149,8 +50245,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -50174,7 +50270,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -50209,7 +50305,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -50244,7 +50340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -50279,7 +50375,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -50328,53 +50424,53 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.23046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -50404,7 +50500,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -50436,8 +50532,8 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="1">
@@ -50468,8 +50564,8 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="1">
@@ -50514,53 +50610,53 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.23046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -50570,7 +50666,7 @@
       <c r="C2" s="2">
         <v>101005</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <v>0.30299999999999999</v>
       </c>
       <c r="E2" s="2">
@@ -50584,7 +50680,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -50594,7 +50690,7 @@
       <c r="C3" s="1">
         <v>22609</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1">
         <v>556</v>
       </c>
@@ -50614,7 +50710,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -50624,7 +50720,7 @@
       <c r="C4" s="1">
         <v>32678</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>0.99496897697917897</v>
       </c>
       <c r="E4" s="1">
@@ -50646,7 +50742,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -50656,7 +50752,7 @@
       <c r="C5" s="1">
         <v>67684</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>1.765659501524955</v>
       </c>
       <c r="E5" s="1">
@@ -50678,7 +50774,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -50688,7 +50784,7 @@
       <c r="C6" s="1">
         <v>37155</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>3.1076968917971488</v>
       </c>
       <c r="E6" s="1">
@@ -50710,7 +50806,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -50720,7 +50816,7 @@
       <c r="C7" s="1">
         <v>28355</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>5.1670170189617659</v>
       </c>
       <c r="E7" s="1">
@@ -50742,7 +50838,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -50752,7 +50848,7 @@
       <c r="C8" s="1">
         <v>14574</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>8.3197265930490811</v>
       </c>
       <c r="E8" s="1">
@@ -50774,7 +50870,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -50784,7 +50880,7 @@
       <c r="C9" s="1">
         <v>4895</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>8.9960559740492556</v>
       </c>
       <c r="E9" s="1">
@@ -50806,7 +50902,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -50816,7 +50912,7 @@
       <c r="C10" s="1">
         <v>2540</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>12.197722415358792</v>
       </c>
       <c r="E10" s="1">
@@ -50838,7 +50934,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -50848,7 +50944,7 @@
       <c r="C11" s="1">
         <v>1599</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>101.70428298279158</v>
       </c>
       <c r="E11" s="1">
@@ -50885,57 +50981,57 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.23046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.23046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -50966,7 +51062,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -51001,7 +51097,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -51036,7 +51132,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -51071,7 +51167,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -51106,7 +51202,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -51141,7 +51237,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -51176,7 +51272,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -51211,7 +51307,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -51260,57 +51356,57 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.23046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -51341,7 +51437,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -51376,7 +51472,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -51411,7 +51507,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -51446,7 +51542,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -51481,7 +51577,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -51516,7 +51612,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -51551,7 +51647,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -51586,7 +51682,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -51636,57 +51732,57 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -51717,7 +51813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -51752,7 +51848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -51787,7 +51883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -51822,7 +51918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -51857,7 +51953,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -51892,7 +51988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -51927,7 +52023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -51973,28 +52069,28 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.4609375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -52005,7 +52101,7 @@
         <v>92.021000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -52016,7 +52112,7 @@
         <v>235.809</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -52027,7 +52123,7 @@
         <v>276.82400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -52040,7 +52136,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -52052,57 +52149,57 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.23046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -52133,7 +52230,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -52168,7 +52265,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -52203,7 +52300,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -52238,7 +52335,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -52273,7 +52370,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -52322,24 +52419,24 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.23046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.23046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -52378,7 +52475,7 @@
       </c>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -52389,7 +52486,7 @@
         <v>1109682</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="11"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="2">
         <v>16815</v>
       </c>
@@ -52413,7 +52510,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -52426,7 +52523,7 @@
       <c r="D3" s="1">
         <v>2.3650000000000002</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <f>D3*N5</f>
         <v>5.002884615384616</v>
       </c>
@@ -52453,7 +52550,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -52490,7 +52587,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -52503,7 +52600,7 @@
       <c r="D5" s="1">
         <v>89.001999999999995</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <f>D5*N5</f>
         <v>188.27346153846153</v>
       </c>
@@ -52534,7 +52631,7 @@
         <v>2.1153846153846154</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -52545,7 +52642,7 @@
         <v>1102431</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="1">
         <v>16602</v>
       </c>
@@ -52569,7 +52666,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -52582,7 +52679,7 @@
       <c r="D7" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <f>D7*N5</f>
         <v>4.9076923076923071</v>
       </c>
@@ -52609,7 +52706,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -52620,7 +52717,7 @@
         <v>1096682</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1">
         <v>10040</v>
       </c>
@@ -52642,7 +52739,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -52655,7 +52752,7 @@
       <c r="D9" s="1">
         <v>2.3290000000000002</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <f>D9*N5</f>
         <v>4.9267307692307698</v>
       </c>
@@ -52680,7 +52777,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -52717,7 +52814,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -52730,7 +52827,7 @@
       <c r="D11" s="1">
         <v>88.786000000000001</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <f>D11*N5</f>
         <v>187.81653846153847</v>
       </c>
@@ -52771,23 +52868,23 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.23046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -52825,7 +52922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -52859,7 +52956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -52897,7 +52994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -52935,7 +53032,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -52973,7 +53070,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -53011,7 +53108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -53049,7 +53146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -53087,7 +53184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -53125,7 +53222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -53155,7 +53252,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -53189,7 +53286,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -53236,33 +53333,33 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -53272,14 +53369,14 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>229271</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -53296,7 +53393,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -53313,7 +53410,7 @@
         <v>59942</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -53330,7 +53427,7 @@
         <v>77884</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -53347,7 +53444,7 @@
         <v>61329</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -53364,7 +53461,7 @@
         <v>8010</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -53381,7 +53478,7 @@
         <v>41038</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -53398,7 +53495,7 @@
         <v>6270</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -53415,7 +53512,7 @@
         <v>7974</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -53432,8 +53529,8 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="1">
@@ -53442,15 +53539,15 @@
       <c r="C12" s="1">
         <v>122.372</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>0.78400000000000003</v>
       </c>
       <c r="E12" s="1">
         <v>555</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="1">
@@ -53459,15 +53556,15 @@
       <c r="C13" s="1">
         <v>24.52</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>0.94299999999999995</v>
       </c>
       <c r="E13" s="1">
         <v>1504</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="1">
@@ -53476,7 +53573,7 @@
       <c r="C14" s="1">
         <v>10.475</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>1.0469999999999999</v>
       </c>
       <c r="E14" s="1"/>
@@ -53495,57 +53592,57 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.23046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.3046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -53580,7 +53677,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -53615,7 +53712,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
@@ -53650,7 +53747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -53685,7 +53782,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -53720,7 +53817,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -53755,7 +53852,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
@@ -53790,7 +53887,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -53825,7 +53922,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -53860,7 +53957,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
@@ -53895,7 +53992,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -53930,7 +54027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
@@ -53965,7 +54062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -54014,57 +54111,57 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.23046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.3046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -54099,7 +54196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -54134,7 +54231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
@@ -54169,7 +54266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -54204,7 +54301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
@@ -54239,7 +54336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
@@ -54274,7 +54371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -54309,7 +54406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
@@ -54344,7 +54441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
@@ -54379,7 +54476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -54414,7 +54511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
@@ -54449,7 +54546,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
@@ -54484,7 +54581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -54519,7 +54616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -54554,7 +54651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
@@ -54589,7 +54686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -54624,7 +54721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -54659,7 +54756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
@@ -54694,7 +54791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -54729,7 +54826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
@@ -54764,7 +54861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -54799,7 +54896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -54834,7 +54931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
@@ -54869,7 +54966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
@@ -54904,7 +55001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -54954,57 +55051,57 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.23046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.3046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -55039,7 +55136,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
@@ -55074,7 +55171,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
@@ -55109,7 +55206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -55144,7 +55241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
@@ -55179,7 +55276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
@@ -55214,7 +55311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
@@ -55249,7 +55346,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -55284,7 +55381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>86</v>
       </c>
@@ -55319,7 +55416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -55354,7 +55451,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -55389,7 +55486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
@@ -55424,7 +55521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>87</v>
       </c>
@@ -55459,7 +55556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
@@ -55494,7 +55591,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -55529,7 +55626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -55564,7 +55661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>101</v>
       </c>
@@ -55599,7 +55696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
@@ -55634,7 +55731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
@@ -55683,57 +55780,57 @@
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -55768,7 +55865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -55803,7 +55900,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
@@ -55838,7 +55935,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -55873,7 +55970,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
@@ -55908,7 +56005,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
@@ -55943,7 +56040,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -55978,7 +56075,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -56013,7 +56110,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -56048,7 +56145,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
@@ -56096,35 +56193,35 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.23046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>42</v>
       </c>
       <c r="G1" t="s">
@@ -56146,7 +56243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -56181,7 +56278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -56216,7 +56313,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
@@ -56251,7 +56348,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -56286,7 +56383,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
@@ -56321,7 +56418,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
@@ -56356,7 +56453,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -56391,7 +56488,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
@@ -56426,7 +56523,7 @@
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
@@ -56461,7 +56558,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -56496,7 +56593,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
@@ -56531,7 +56628,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
@@ -56566,7 +56663,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -56601,7 +56698,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -56636,7 +56733,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
@@ -56671,7 +56768,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -56706,7 +56803,7 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -56741,7 +56838,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
@@ -56776,7 +56873,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
